--- a/media/iviscom_download_fiz.xlsx
+++ b/media/iviscom_download_fiz.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vladislavkateryushin/Documents/crm-ktsNew-test/media/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A955FCAB-1A19-E247-8843-4E66F9543CA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2D86D86-8F8C-DE43-B240-6984D1BB9238}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1240" yWindow="1240" windowWidth="27840" windowHeight="16740" xr2:uid="{392D9F8D-AFB5-7E47-9560-7FC7F181A4ED}"/>
   </bookViews>
@@ -126,7 +126,7 @@
     <numFmt numFmtId="165" formatCode="0;[Red]0"/>
     <numFmt numFmtId="166" formatCode="#,##0.00;[Red]#,##0.00"/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -152,13 +152,6 @@
       <sz val="22"/>
       <name val="Arial"/>
       <family val="2"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="22"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
       <charset val="204"/>
     </font>
     <font>
@@ -195,11 +188,27 @@
       <charset val="204"/>
     </font>
     <font>
-      <i/>
-      <sz val="20"/>
+      <b/>
+      <sz val="22"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="22"/>
+      <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
       <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="22"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -285,13 +294,7 @@
     <xf numFmtId="165" fontId="2" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -299,96 +302,98 @@
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="1" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="1" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="1" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -707,193 +712,202 @@
   <dimension ref="A1:R37"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="50" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13:R31"/>
+      <selection activeCell="A7" sqref="A7:R7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="29" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="8" max="8" width="19.5" customWidth="1"/>
-    <col min="10" max="10" width="17.83203125" customWidth="1"/>
-    <col min="11" max="11" width="16.83203125" customWidth="1"/>
-    <col min="14" max="14" width="20.5" customWidth="1"/>
-    <col min="15" max="16" width="10.83203125" customWidth="1"/>
-    <col min="17" max="17" width="19.5" customWidth="1"/>
-    <col min="18" max="18" width="13.5" customWidth="1"/>
+    <col min="1" max="1" width="14.83203125" style="45" customWidth="1"/>
+    <col min="2" max="2" width="13.5" style="45" customWidth="1"/>
+    <col min="3" max="3" width="52.5" style="45" customWidth="1"/>
+    <col min="4" max="4" width="61.5" style="45" customWidth="1"/>
+    <col min="5" max="5" width="15.5" style="45" customWidth="1"/>
+    <col min="6" max="6" width="13.5" style="45" customWidth="1"/>
+    <col min="7" max="7" width="13.1640625" style="45" customWidth="1"/>
+    <col min="8" max="8" width="19.5" style="45" customWidth="1"/>
+    <col min="9" max="9" width="10.83203125" style="45"/>
+    <col min="10" max="10" width="17.83203125" style="45" customWidth="1"/>
+    <col min="11" max="11" width="16.83203125" style="45" customWidth="1"/>
+    <col min="12" max="13" width="10.83203125" style="45"/>
+    <col min="14" max="14" width="20.5" style="45" customWidth="1"/>
+    <col min="15" max="16" width="10.83203125" style="45" customWidth="1"/>
+    <col min="17" max="17" width="19.5" style="45" customWidth="1"/>
+    <col min="18" max="18" width="13.5" style="45" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="28" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="17" t="s">
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="17"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="20"/>
-      <c r="I1" s="21"/>
-      <c r="J1" s="22"/>
-      <c r="K1" s="17"/>
-      <c r="L1" s="23"/>
-      <c r="M1" s="23"/>
-      <c r="N1" s="24" t="s">
+      <c r="E1" s="15"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="19"/>
+      <c r="J1" s="20"/>
+      <c r="K1" s="15"/>
+      <c r="L1" s="21"/>
+      <c r="M1" s="21"/>
+      <c r="N1" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="O1" s="25"/>
-      <c r="P1" s="26"/>
-      <c r="Q1" s="13"/>
+      <c r="O1" s="23"/>
+      <c r="P1" s="24"/>
+      <c r="Q1" s="11"/>
       <c r="R1" s="2"/>
     </row>
     <row r="2" spans="1:18" ht="28" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
-      <c r="B2" s="16"/>
-      <c r="C2" s="16"/>
-      <c r="D2" s="17" t="s">
+      <c r="B2" s="14"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="17"/>
-      <c r="F2" s="18"/>
-      <c r="G2" s="19"/>
-      <c r="H2" s="20"/>
-      <c r="I2" s="27"/>
-      <c r="J2" s="20"/>
-      <c r="K2" s="20"/>
-      <c r="L2" s="23"/>
-      <c r="M2" s="23"/>
-      <c r="N2" s="39" t="s">
+      <c r="E2" s="15"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="18"/>
+      <c r="I2" s="25"/>
+      <c r="J2" s="18"/>
+      <c r="K2" s="18"/>
+      <c r="L2" s="21"/>
+      <c r="M2" s="21"/>
+      <c r="N2" s="46" t="s">
         <v>23</v>
       </c>
-      <c r="O2" s="39"/>
-      <c r="P2" s="39"/>
-      <c r="Q2" s="14"/>
+      <c r="O2" s="46"/>
+      <c r="P2" s="46"/>
+      <c r="Q2" s="12"/>
       <c r="R2" s="3"/>
     </row>
     <row r="3" spans="1:18" ht="28" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
-      <c r="B3" s="16"/>
-      <c r="C3" s="16"/>
-      <c r="D3" s="17" t="s">
+      <c r="B3" s="14"/>
+      <c r="C3" s="14"/>
+      <c r="D3" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="17"/>
-      <c r="F3" s="18"/>
-      <c r="G3" s="19"/>
-      <c r="H3" s="20"/>
-      <c r="I3" s="27"/>
-      <c r="J3" s="22"/>
-      <c r="K3" s="17"/>
-      <c r="L3" s="28"/>
-      <c r="M3" s="29"/>
-      <c r="N3" s="28" t="s">
+      <c r="E3" s="15"/>
+      <c r="F3" s="16"/>
+      <c r="G3" s="17"/>
+      <c r="H3" s="18"/>
+      <c r="I3" s="25"/>
+      <c r="J3" s="20"/>
+      <c r="K3" s="15"/>
+      <c r="L3" s="26"/>
+      <c r="M3" s="27"/>
+      <c r="N3" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="O3" s="28"/>
-      <c r="P3" s="28"/>
+      <c r="O3" s="26"/>
+      <c r="P3" s="26"/>
       <c r="Q3" s="2"/>
       <c r="R3" s="2"/>
     </row>
     <row r="4" spans="1:18" ht="28" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
-      <c r="B4" s="16"/>
-      <c r="C4" s="16"/>
-      <c r="D4" s="20"/>
-      <c r="E4" s="20"/>
-      <c r="F4" s="18"/>
-      <c r="G4" s="19"/>
-      <c r="H4" s="20"/>
-      <c r="I4" s="27"/>
-      <c r="J4" s="30"/>
-      <c r="K4" s="17"/>
-      <c r="L4" s="31"/>
-      <c r="M4" s="31"/>
-      <c r="N4" s="31"/>
-      <c r="O4" s="32"/>
-      <c r="P4" s="33"/>
+      <c r="B4" s="14"/>
+      <c r="C4" s="14"/>
+      <c r="D4" s="18"/>
+      <c r="E4" s="18"/>
+      <c r="F4" s="16"/>
+      <c r="G4" s="17"/>
+      <c r="H4" s="18"/>
+      <c r="I4" s="25"/>
+      <c r="J4" s="28"/>
+      <c r="K4" s="15"/>
+      <c r="L4" s="29"/>
+      <c r="M4" s="29"/>
+      <c r="N4" s="29"/>
+      <c r="O4" s="30"/>
+      <c r="P4" s="31"/>
       <c r="Q4" s="4"/>
       <c r="R4" s="4"/>
     </row>
     <row r="5" spans="1:18" ht="28" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
-      <c r="B5" s="16"/>
-      <c r="C5" s="16"/>
-      <c r="D5" s="34"/>
-      <c r="E5" s="35" t="s">
+      <c r="B5" s="14"/>
+      <c r="C5" s="14"/>
+      <c r="D5" s="32"/>
+      <c r="E5" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="29"/>
-      <c r="G5" s="19"/>
-      <c r="H5" s="20"/>
-      <c r="I5" s="27"/>
-      <c r="J5" s="30"/>
-      <c r="K5" s="17"/>
-      <c r="L5" s="29"/>
-      <c r="M5" s="40" t="s">
+      <c r="F5" s="27"/>
+      <c r="G5" s="17"/>
+      <c r="H5" s="18"/>
+      <c r="I5" s="25"/>
+      <c r="J5" s="28"/>
+      <c r="K5" s="15"/>
+      <c r="L5" s="27"/>
+      <c r="M5" s="47" t="s">
         <v>25</v>
       </c>
-      <c r="N5" s="40"/>
-      <c r="O5" s="40"/>
-      <c r="P5" s="40"/>
-      <c r="Q5" s="15"/>
-      <c r="R5" s="15"/>
+      <c r="N5" s="47"/>
+      <c r="O5" s="47"/>
+      <c r="P5" s="47"/>
+      <c r="Q5" s="13"/>
+      <c r="R5" s="13"/>
     </row>
     <row r="6" spans="1:18" ht="28" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
-      <c r="B6" s="16"/>
-      <c r="C6" s="16"/>
-      <c r="D6" s="17"/>
-      <c r="E6" s="17"/>
-      <c r="F6" s="35"/>
-      <c r="G6" s="19"/>
-      <c r="H6" s="20"/>
-      <c r="I6" s="27"/>
-      <c r="J6" s="30"/>
-      <c r="K6" s="17"/>
-      <c r="L6" s="31"/>
-      <c r="M6" s="31"/>
-      <c r="N6" s="31"/>
-      <c r="O6" s="31"/>
-      <c r="P6" s="20"/>
+      <c r="B6" s="14"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="15"/>
+      <c r="E6" s="15"/>
+      <c r="F6" s="33"/>
+      <c r="G6" s="17"/>
+      <c r="H6" s="18"/>
+      <c r="I6" s="25"/>
+      <c r="J6" s="28"/>
+      <c r="K6" s="15"/>
+      <c r="L6" s="29"/>
+      <c r="M6" s="29"/>
+      <c r="N6" s="29"/>
+      <c r="O6" s="29"/>
+      <c r="P6" s="18"/>
       <c r="Q6" s="4"/>
       <c r="R6" s="4"/>
     </row>
     <row r="7" spans="1:18" ht="28" x14ac:dyDescent="0.2">
-      <c r="A7" s="11"/>
-      <c r="B7" s="41"/>
-      <c r="C7" s="41"/>
-      <c r="D7" s="42"/>
-      <c r="E7" s="42"/>
-      <c r="F7" s="42"/>
-      <c r="G7" s="42"/>
-      <c r="H7" s="42"/>
-      <c r="I7" s="42"/>
-      <c r="J7" s="42"/>
-      <c r="K7" s="42"/>
-      <c r="L7" s="42"/>
-      <c r="M7" s="42"/>
-      <c r="N7" s="42"/>
-      <c r="O7" s="42"/>
-      <c r="P7" s="42"/>
-      <c r="Q7" s="12"/>
-      <c r="R7" s="12"/>
+      <c r="A7" s="48"/>
+      <c r="B7" s="48"/>
+      <c r="C7" s="48"/>
+      <c r="D7" s="48"/>
+      <c r="E7" s="48"/>
+      <c r="F7" s="48"/>
+      <c r="G7" s="48"/>
+      <c r="H7" s="48"/>
+      <c r="I7" s="48"/>
+      <c r="J7" s="48"/>
+      <c r="K7" s="48"/>
+      <c r="L7" s="48"/>
+      <c r="M7" s="48"/>
+      <c r="N7" s="48"/>
+      <c r="O7" s="48"/>
+      <c r="P7" s="48"/>
+      <c r="Q7" s="48"/>
+      <c r="R7" s="48"/>
     </row>
     <row r="8" spans="1:18" ht="28" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
-      <c r="B8" s="16"/>
-      <c r="C8" s="16"/>
-      <c r="D8" s="36"/>
-      <c r="E8" s="36"/>
-      <c r="F8" s="18"/>
-      <c r="G8" s="17"/>
-      <c r="H8" s="23"/>
-      <c r="I8" s="37"/>
-      <c r="J8" s="25"/>
-      <c r="K8" s="23"/>
-      <c r="L8" s="38"/>
-      <c r="M8" s="38"/>
-      <c r="N8" s="38"/>
-      <c r="O8" s="38"/>
-      <c r="P8" s="38">
+      <c r="B8" s="14"/>
+      <c r="C8" s="14"/>
+      <c r="D8" s="34"/>
+      <c r="E8" s="34"/>
+      <c r="F8" s="16"/>
+      <c r="G8" s="15"/>
+      <c r="H8" s="21"/>
+      <c r="I8" s="35"/>
+      <c r="J8" s="23"/>
+      <c r="K8" s="21"/>
+      <c r="L8" s="36"/>
+      <c r="M8" s="36"/>
+      <c r="N8" s="36"/>
+      <c r="O8" s="36"/>
+      <c r="P8" s="36">
         <v>30</v>
       </c>
       <c r="Q8" s="5">
@@ -901,7 +915,7 @@
       </c>
       <c r="R8" s="5"/>
     </row>
-    <row r="9" spans="1:18" ht="319" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18" ht="203" x14ac:dyDescent="0.2">
       <c r="A9" s="6" t="s">
         <v>5</v>
       </c>
@@ -957,96 +971,571 @@
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="1:18" ht="28" x14ac:dyDescent="0.2">
-      <c r="A10" s="43"/>
-      <c r="B10" s="43"/>
-      <c r="C10" s="43"/>
-      <c r="D10" s="43"/>
-      <c r="E10" s="43"/>
-      <c r="F10" s="43"/>
-      <c r="G10" s="43"/>
-      <c r="H10" s="44"/>
-      <c r="I10" s="45"/>
-      <c r="J10" s="46"/>
-      <c r="K10" s="45"/>
-      <c r="L10" s="46"/>
-      <c r="M10" s="46"/>
-      <c r="N10" s="46"/>
-      <c r="O10" s="46"/>
-      <c r="P10" s="46"/>
-      <c r="Q10" s="47"/>
-      <c r="R10" s="48"/>
+    <row r="10" spans="1:18" ht="102" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="37"/>
+      <c r="B10" s="37"/>
+      <c r="C10" s="37"/>
+      <c r="D10" s="37"/>
+      <c r="E10" s="37"/>
+      <c r="F10" s="37"/>
+      <c r="G10" s="37"/>
+      <c r="H10" s="38"/>
+      <c r="I10" s="39"/>
+      <c r="J10" s="40"/>
+      <c r="K10" s="39"/>
+      <c r="L10" s="40"/>
+      <c r="M10" s="40"/>
+      <c r="N10" s="40"/>
+      <c r="O10" s="40"/>
+      <c r="P10" s="40"/>
+      <c r="Q10" s="41"/>
+      <c r="R10" s="42"/>
     </row>
     <row r="11" spans="1:18" ht="28" x14ac:dyDescent="0.2">
-      <c r="A11" s="43"/>
-      <c r="B11" s="43"/>
-      <c r="C11" s="43"/>
-      <c r="D11" s="43"/>
-      <c r="E11" s="43"/>
-      <c r="F11" s="43"/>
-      <c r="G11" s="43"/>
-      <c r="H11" s="44"/>
-      <c r="I11" s="45"/>
-      <c r="J11" s="46"/>
-      <c r="K11" s="45"/>
-      <c r="L11" s="46"/>
-      <c r="M11" s="46"/>
-      <c r="N11" s="46"/>
-      <c r="O11" s="46"/>
-      <c r="P11" s="46"/>
-      <c r="Q11" s="47"/>
-      <c r="R11" s="43"/>
+      <c r="A11" s="37"/>
+      <c r="B11" s="37"/>
+      <c r="C11" s="37"/>
+      <c r="D11" s="37"/>
+      <c r="E11" s="37"/>
+      <c r="F11" s="37"/>
+      <c r="G11" s="37"/>
+      <c r="H11" s="38"/>
+      <c r="I11" s="39"/>
+      <c r="J11" s="40"/>
+      <c r="K11" s="39"/>
+      <c r="L11" s="40"/>
+      <c r="M11" s="40"/>
+      <c r="N11" s="40"/>
+      <c r="O11" s="40"/>
+      <c r="P11" s="40"/>
+      <c r="Q11" s="41"/>
+      <c r="R11" s="37"/>
     </row>
     <row r="12" spans="1:18" ht="28" x14ac:dyDescent="0.2">
-      <c r="A12" s="43"/>
-      <c r="B12" s="43"/>
-      <c r="C12" s="43"/>
-      <c r="D12" s="43"/>
-      <c r="E12" s="43"/>
-      <c r="F12" s="43"/>
-      <c r="G12" s="43"/>
-      <c r="H12" s="44"/>
-      <c r="I12" s="45"/>
-      <c r="J12" s="46"/>
-      <c r="K12" s="45"/>
-      <c r="L12" s="46"/>
-      <c r="M12" s="46"/>
-      <c r="N12" s="46"/>
-      <c r="O12" s="46"/>
-      <c r="P12" s="46"/>
-      <c r="Q12" s="47"/>
-      <c r="R12" s="43"/>
-    </row>
-    <row r="13" spans="1:18" s="10" customFormat="1" ht="28" x14ac:dyDescent="0.3"/>
-    <row r="14" spans="1:18" s="10" customFormat="1" ht="28" x14ac:dyDescent="0.3"/>
-    <row r="15" spans="1:18" s="10" customFormat="1" ht="28" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="1:18" s="10" customFormat="1" ht="28" x14ac:dyDescent="0.3"/>
-    <row r="17" s="10" customFormat="1" ht="28" x14ac:dyDescent="0.3"/>
-    <row r="18" s="10" customFormat="1" ht="28" x14ac:dyDescent="0.3"/>
-    <row r="19" s="10" customFormat="1" ht="28" x14ac:dyDescent="0.3"/>
-    <row r="20" s="10" customFormat="1" ht="28" x14ac:dyDescent="0.3"/>
-    <row r="21" s="10" customFormat="1" ht="28" x14ac:dyDescent="0.3"/>
-    <row r="22" s="10" customFormat="1" ht="28" x14ac:dyDescent="0.3"/>
-    <row r="23" s="10" customFormat="1" ht="28" x14ac:dyDescent="0.3"/>
-    <row r="24" s="10" customFormat="1" ht="28" x14ac:dyDescent="0.3"/>
-    <row r="25" s="10" customFormat="1" ht="28" x14ac:dyDescent="0.3"/>
-    <row r="26" s="10" customFormat="1" ht="28" x14ac:dyDescent="0.3"/>
-    <row r="27" s="10" customFormat="1" ht="28" x14ac:dyDescent="0.3"/>
-    <row r="28" s="10" customFormat="1" ht="28" x14ac:dyDescent="0.3"/>
-    <row r="29" s="10" customFormat="1" ht="28" x14ac:dyDescent="0.3"/>
-    <row r="30" s="10" customFormat="1" ht="28" x14ac:dyDescent="0.3"/>
-    <row r="31" s="10" customFormat="1" ht="28" x14ac:dyDescent="0.3"/>
-    <row r="32" s="10" customFormat="1" ht="28" x14ac:dyDescent="0.3"/>
-    <row r="33" s="10" customFormat="1" ht="28" x14ac:dyDescent="0.3"/>
-    <row r="34" s="10" customFormat="1" ht="28" x14ac:dyDescent="0.3"/>
-    <row r="35" s="10" customFormat="1" ht="28" x14ac:dyDescent="0.3"/>
-    <row r="36" s="10" customFormat="1" ht="28" x14ac:dyDescent="0.3"/>
-    <row r="37" s="10" customFormat="1" ht="28" x14ac:dyDescent="0.3"/>
+      <c r="A12" s="37"/>
+      <c r="B12" s="37"/>
+      <c r="C12" s="37"/>
+      <c r="D12" s="37"/>
+      <c r="E12" s="37"/>
+      <c r="F12" s="37"/>
+      <c r="G12" s="37"/>
+      <c r="H12" s="38"/>
+      <c r="I12" s="39"/>
+      <c r="J12" s="40"/>
+      <c r="K12" s="39"/>
+      <c r="L12" s="40"/>
+      <c r="M12" s="40"/>
+      <c r="N12" s="40"/>
+      <c r="O12" s="40"/>
+      <c r="P12" s="40"/>
+      <c r="Q12" s="41"/>
+      <c r="R12" s="37"/>
+    </row>
+    <row r="13" spans="1:18" s="10" customFormat="1" ht="28" x14ac:dyDescent="0.3">
+      <c r="A13" s="43"/>
+      <c r="B13" s="43"/>
+      <c r="C13" s="43"/>
+      <c r="D13" s="43"/>
+      <c r="E13" s="43"/>
+      <c r="F13" s="43"/>
+      <c r="G13" s="43"/>
+      <c r="H13" s="43"/>
+      <c r="I13" s="43"/>
+      <c r="J13" s="43"/>
+      <c r="K13" s="43"/>
+      <c r="L13" s="43"/>
+      <c r="M13" s="43"/>
+      <c r="N13" s="43"/>
+      <c r="O13" s="43"/>
+      <c r="P13" s="43"/>
+      <c r="Q13" s="43"/>
+      <c r="R13" s="43"/>
+    </row>
+    <row r="14" spans="1:18" s="10" customFormat="1" ht="28" x14ac:dyDescent="0.3">
+      <c r="A14" s="44"/>
+      <c r="B14" s="44"/>
+      <c r="C14" s="44"/>
+      <c r="D14" s="44"/>
+      <c r="E14" s="44"/>
+      <c r="F14" s="44"/>
+      <c r="G14" s="44"/>
+      <c r="H14" s="44"/>
+      <c r="I14" s="44"/>
+      <c r="J14" s="44"/>
+      <c r="K14" s="44"/>
+      <c r="L14" s="44"/>
+      <c r="M14" s="44"/>
+      <c r="N14" s="44"/>
+      <c r="O14" s="44"/>
+      <c r="P14" s="44"/>
+      <c r="Q14" s="44"/>
+      <c r="R14" s="44"/>
+    </row>
+    <row r="15" spans="1:18" s="10" customFormat="1" ht="28" x14ac:dyDescent="0.3">
+      <c r="A15" s="44"/>
+      <c r="B15" s="44"/>
+      <c r="C15" s="44"/>
+      <c r="D15" s="44"/>
+      <c r="E15" s="44"/>
+      <c r="F15" s="44"/>
+      <c r="G15" s="44"/>
+      <c r="H15" s="44"/>
+      <c r="I15" s="44"/>
+      <c r="J15" s="44"/>
+      <c r="K15" s="44"/>
+      <c r="L15" s="44"/>
+      <c r="M15" s="44"/>
+      <c r="N15" s="44"/>
+      <c r="O15" s="44"/>
+      <c r="P15" s="44"/>
+      <c r="Q15" s="44"/>
+      <c r="R15" s="44"/>
+    </row>
+    <row r="16" spans="1:18" s="10" customFormat="1" ht="28" x14ac:dyDescent="0.3">
+      <c r="A16" s="44"/>
+      <c r="B16" s="44"/>
+      <c r="C16" s="44"/>
+      <c r="D16" s="44"/>
+      <c r="E16" s="44"/>
+      <c r="F16" s="44"/>
+      <c r="G16" s="44"/>
+      <c r="H16" s="44"/>
+      <c r="I16" s="44"/>
+      <c r="J16" s="44"/>
+      <c r="K16" s="44"/>
+      <c r="L16" s="44"/>
+      <c r="M16" s="44"/>
+      <c r="N16" s="44"/>
+      <c r="O16" s="44"/>
+      <c r="P16" s="44"/>
+      <c r="Q16" s="44"/>
+      <c r="R16" s="44"/>
+    </row>
+    <row r="17" spans="1:18" s="10" customFormat="1" ht="28" x14ac:dyDescent="0.3">
+      <c r="A17" s="44"/>
+      <c r="B17" s="44"/>
+      <c r="C17" s="44"/>
+      <c r="D17" s="44"/>
+      <c r="E17" s="44"/>
+      <c r="F17" s="44"/>
+      <c r="G17" s="44"/>
+      <c r="H17" s="44"/>
+      <c r="I17" s="44"/>
+      <c r="J17" s="44"/>
+      <c r="K17" s="44"/>
+      <c r="L17" s="44"/>
+      <c r="M17" s="44"/>
+      <c r="N17" s="44"/>
+      <c r="O17" s="44"/>
+      <c r="P17" s="44"/>
+      <c r="Q17" s="44"/>
+      <c r="R17" s="44"/>
+    </row>
+    <row r="18" spans="1:18" s="10" customFormat="1" ht="28" x14ac:dyDescent="0.3">
+      <c r="A18" s="44"/>
+      <c r="B18" s="44"/>
+      <c r="C18" s="44"/>
+      <c r="D18" s="44"/>
+      <c r="E18" s="44"/>
+      <c r="F18" s="44"/>
+      <c r="G18" s="44"/>
+      <c r="H18" s="44"/>
+      <c r="I18" s="44"/>
+      <c r="J18" s="44"/>
+      <c r="K18" s="44"/>
+      <c r="L18" s="44"/>
+      <c r="M18" s="44"/>
+      <c r="N18" s="44"/>
+      <c r="O18" s="44"/>
+      <c r="P18" s="44"/>
+      <c r="Q18" s="44"/>
+      <c r="R18" s="44"/>
+    </row>
+    <row r="19" spans="1:18" s="10" customFormat="1" ht="28" x14ac:dyDescent="0.3">
+      <c r="A19" s="44"/>
+      <c r="B19" s="44"/>
+      <c r="C19" s="44"/>
+      <c r="D19" s="44"/>
+      <c r="E19" s="44"/>
+      <c r="F19" s="44"/>
+      <c r="G19" s="44"/>
+      <c r="H19" s="44"/>
+      <c r="I19" s="44"/>
+      <c r="J19" s="44"/>
+      <c r="K19" s="44"/>
+      <c r="L19" s="44"/>
+      <c r="M19" s="44"/>
+      <c r="N19" s="44"/>
+      <c r="O19" s="44"/>
+      <c r="P19" s="44"/>
+      <c r="Q19" s="44"/>
+      <c r="R19" s="44"/>
+    </row>
+    <row r="20" spans="1:18" s="10" customFormat="1" ht="28" x14ac:dyDescent="0.3">
+      <c r="A20" s="44"/>
+      <c r="B20" s="44"/>
+      <c r="C20" s="44"/>
+      <c r="D20" s="44"/>
+      <c r="E20" s="44"/>
+      <c r="F20" s="44"/>
+      <c r="G20" s="44"/>
+      <c r="H20" s="44"/>
+      <c r="I20" s="44"/>
+      <c r="J20" s="44"/>
+      <c r="K20" s="44"/>
+      <c r="L20" s="44"/>
+      <c r="M20" s="44"/>
+      <c r="N20" s="44"/>
+      <c r="O20" s="44"/>
+      <c r="P20" s="44"/>
+      <c r="Q20" s="44"/>
+      <c r="R20" s="44"/>
+    </row>
+    <row r="21" spans="1:18" s="10" customFormat="1" ht="28" x14ac:dyDescent="0.3">
+      <c r="A21" s="44"/>
+      <c r="B21" s="44"/>
+      <c r="C21" s="44"/>
+      <c r="D21" s="44"/>
+      <c r="E21" s="44"/>
+      <c r="F21" s="44"/>
+      <c r="G21" s="44"/>
+      <c r="H21" s="44"/>
+      <c r="I21" s="44"/>
+      <c r="J21" s="44"/>
+      <c r="K21" s="44"/>
+      <c r="L21" s="44"/>
+      <c r="M21" s="44"/>
+      <c r="N21" s="44"/>
+      <c r="O21" s="44"/>
+      <c r="P21" s="44"/>
+      <c r="Q21" s="44"/>
+      <c r="R21" s="44"/>
+    </row>
+    <row r="22" spans="1:18" s="10" customFormat="1" ht="28" x14ac:dyDescent="0.3">
+      <c r="A22" s="44"/>
+      <c r="B22" s="44"/>
+      <c r="C22" s="44"/>
+      <c r="D22" s="44"/>
+      <c r="E22" s="44"/>
+      <c r="F22" s="44"/>
+      <c r="G22" s="44"/>
+      <c r="H22" s="44"/>
+      <c r="I22" s="44"/>
+      <c r="J22" s="44"/>
+      <c r="K22" s="44"/>
+      <c r="L22" s="44"/>
+      <c r="M22" s="44"/>
+      <c r="N22" s="44"/>
+      <c r="O22" s="44"/>
+      <c r="P22" s="44"/>
+      <c r="Q22" s="44"/>
+      <c r="R22" s="44"/>
+    </row>
+    <row r="23" spans="1:18" s="10" customFormat="1" ht="28" x14ac:dyDescent="0.3">
+      <c r="A23" s="44"/>
+      <c r="B23" s="44"/>
+      <c r="C23" s="44"/>
+      <c r="D23" s="44"/>
+      <c r="E23" s="44"/>
+      <c r="F23" s="44"/>
+      <c r="G23" s="44"/>
+      <c r="H23" s="44"/>
+      <c r="I23" s="44"/>
+      <c r="J23" s="44"/>
+      <c r="K23" s="44"/>
+      <c r="L23" s="44"/>
+      <c r="M23" s="44"/>
+      <c r="N23" s="44"/>
+      <c r="O23" s="44"/>
+      <c r="P23" s="44"/>
+      <c r="Q23" s="44"/>
+      <c r="R23" s="44"/>
+    </row>
+    <row r="24" spans="1:18" s="10" customFormat="1" ht="28" x14ac:dyDescent="0.3">
+      <c r="A24" s="44"/>
+      <c r="B24" s="44"/>
+      <c r="C24" s="44"/>
+      <c r="D24" s="44"/>
+      <c r="E24" s="44"/>
+      <c r="F24" s="44"/>
+      <c r="G24" s="44"/>
+      <c r="H24" s="44"/>
+      <c r="I24" s="44"/>
+      <c r="J24" s="44"/>
+      <c r="K24" s="44"/>
+      <c r="L24" s="44"/>
+      <c r="M24" s="44"/>
+      <c r="N24" s="44"/>
+      <c r="O24" s="44"/>
+      <c r="P24" s="44"/>
+      <c r="Q24" s="44"/>
+      <c r="R24" s="44"/>
+    </row>
+    <row r="25" spans="1:18" s="10" customFormat="1" ht="28" x14ac:dyDescent="0.3">
+      <c r="A25" s="44"/>
+      <c r="B25" s="44"/>
+      <c r="C25" s="44"/>
+      <c r="D25" s="44"/>
+      <c r="E25" s="44"/>
+      <c r="F25" s="44"/>
+      <c r="G25" s="44"/>
+      <c r="H25" s="44"/>
+      <c r="I25" s="44"/>
+      <c r="J25" s="44"/>
+      <c r="K25" s="44"/>
+      <c r="L25" s="44"/>
+      <c r="M25" s="44"/>
+      <c r="N25" s="44"/>
+      <c r="O25" s="44"/>
+      <c r="P25" s="44"/>
+      <c r="Q25" s="44"/>
+      <c r="R25" s="44"/>
+    </row>
+    <row r="26" spans="1:18" s="10" customFormat="1" ht="28" x14ac:dyDescent="0.3">
+      <c r="A26" s="44"/>
+      <c r="B26" s="44"/>
+      <c r="C26" s="44"/>
+      <c r="D26" s="44"/>
+      <c r="E26" s="44"/>
+      <c r="F26" s="44"/>
+      <c r="G26" s="44"/>
+      <c r="H26" s="44"/>
+      <c r="I26" s="44"/>
+      <c r="J26" s="44"/>
+      <c r="K26" s="44"/>
+      <c r="L26" s="44"/>
+      <c r="M26" s="44"/>
+      <c r="N26" s="44"/>
+      <c r="O26" s="44"/>
+      <c r="P26" s="44"/>
+      <c r="Q26" s="44"/>
+      <c r="R26" s="44"/>
+    </row>
+    <row r="27" spans="1:18" s="10" customFormat="1" ht="28" x14ac:dyDescent="0.3">
+      <c r="A27" s="44"/>
+      <c r="B27" s="44"/>
+      <c r="C27" s="44"/>
+      <c r="D27" s="44"/>
+      <c r="E27" s="44"/>
+      <c r="F27" s="44"/>
+      <c r="G27" s="44"/>
+      <c r="H27" s="44"/>
+      <c r="I27" s="44"/>
+      <c r="J27" s="44"/>
+      <c r="K27" s="44"/>
+      <c r="L27" s="44"/>
+      <c r="M27" s="44"/>
+      <c r="N27" s="44"/>
+      <c r="O27" s="44"/>
+      <c r="P27" s="44"/>
+      <c r="Q27" s="44"/>
+      <c r="R27" s="44"/>
+    </row>
+    <row r="28" spans="1:18" s="10" customFormat="1" ht="28" x14ac:dyDescent="0.3">
+      <c r="A28" s="44"/>
+      <c r="B28" s="44"/>
+      <c r="C28" s="44"/>
+      <c r="D28" s="44"/>
+      <c r="E28" s="44"/>
+      <c r="F28" s="44"/>
+      <c r="G28" s="44"/>
+      <c r="H28" s="44"/>
+      <c r="I28" s="44"/>
+      <c r="J28" s="44"/>
+      <c r="K28" s="44"/>
+      <c r="L28" s="44"/>
+      <c r="M28" s="44"/>
+      <c r="N28" s="44"/>
+      <c r="O28" s="44"/>
+      <c r="P28" s="44"/>
+      <c r="Q28" s="44"/>
+      <c r="R28" s="44"/>
+    </row>
+    <row r="29" spans="1:18" s="10" customFormat="1" ht="28" x14ac:dyDescent="0.3">
+      <c r="A29" s="44"/>
+      <c r="B29" s="44"/>
+      <c r="C29" s="44"/>
+      <c r="D29" s="44"/>
+      <c r="E29" s="44"/>
+      <c r="F29" s="44"/>
+      <c r="G29" s="44"/>
+      <c r="H29" s="44"/>
+      <c r="I29" s="44"/>
+      <c r="J29" s="44"/>
+      <c r="K29" s="44"/>
+      <c r="L29" s="44"/>
+      <c r="M29" s="44"/>
+      <c r="N29" s="44"/>
+      <c r="O29" s="44"/>
+      <c r="P29" s="44"/>
+      <c r="Q29" s="44"/>
+      <c r="R29" s="44"/>
+    </row>
+    <row r="30" spans="1:18" s="10" customFormat="1" ht="28" x14ac:dyDescent="0.3">
+      <c r="A30" s="44"/>
+      <c r="B30" s="44"/>
+      <c r="C30" s="44"/>
+      <c r="D30" s="44"/>
+      <c r="E30" s="44"/>
+      <c r="F30" s="44"/>
+      <c r="G30" s="44"/>
+      <c r="H30" s="44"/>
+      <c r="I30" s="44"/>
+      <c r="J30" s="44"/>
+      <c r="K30" s="44"/>
+      <c r="L30" s="44"/>
+      <c r="M30" s="44"/>
+      <c r="N30" s="44"/>
+      <c r="O30" s="44"/>
+      <c r="P30" s="44"/>
+      <c r="Q30" s="44"/>
+      <c r="R30" s="44"/>
+    </row>
+    <row r="31" spans="1:18" s="10" customFormat="1" ht="28" x14ac:dyDescent="0.3">
+      <c r="A31" s="44"/>
+      <c r="B31" s="44"/>
+      <c r="C31" s="44"/>
+      <c r="D31" s="44"/>
+      <c r="E31" s="44"/>
+      <c r="F31" s="44"/>
+      <c r="G31" s="44"/>
+      <c r="H31" s="44"/>
+      <c r="I31" s="44"/>
+      <c r="J31" s="44"/>
+      <c r="K31" s="44"/>
+      <c r="L31" s="44"/>
+      <c r="M31" s="44"/>
+      <c r="N31" s="44"/>
+      <c r="O31" s="44"/>
+      <c r="P31" s="44"/>
+      <c r="Q31" s="44"/>
+      <c r="R31" s="44"/>
+    </row>
+    <row r="32" spans="1:18" s="10" customFormat="1" ht="28" x14ac:dyDescent="0.3">
+      <c r="A32" s="44"/>
+      <c r="B32" s="44"/>
+      <c r="C32" s="44"/>
+      <c r="D32" s="44"/>
+      <c r="E32" s="44"/>
+      <c r="F32" s="44"/>
+      <c r="G32" s="44"/>
+      <c r="H32" s="44"/>
+      <c r="I32" s="44"/>
+      <c r="J32" s="44"/>
+      <c r="K32" s="44"/>
+      <c r="L32" s="44"/>
+      <c r="M32" s="44"/>
+      <c r="N32" s="44"/>
+      <c r="O32" s="44"/>
+      <c r="P32" s="44"/>
+      <c r="Q32" s="44"/>
+      <c r="R32" s="44"/>
+    </row>
+    <row r="33" spans="1:18" s="10" customFormat="1" ht="28" x14ac:dyDescent="0.3">
+      <c r="A33" s="44"/>
+      <c r="B33" s="44"/>
+      <c r="C33" s="44"/>
+      <c r="D33" s="44"/>
+      <c r="E33" s="44"/>
+      <c r="F33" s="44"/>
+      <c r="G33" s="44"/>
+      <c r="H33" s="44"/>
+      <c r="I33" s="44"/>
+      <c r="J33" s="44"/>
+      <c r="K33" s="44"/>
+      <c r="L33" s="44"/>
+      <c r="M33" s="44"/>
+      <c r="N33" s="44"/>
+      <c r="O33" s="44"/>
+      <c r="P33" s="44"/>
+      <c r="Q33" s="44"/>
+      <c r="R33" s="44"/>
+    </row>
+    <row r="34" spans="1:18" s="10" customFormat="1" ht="28" x14ac:dyDescent="0.3">
+      <c r="A34" s="44"/>
+      <c r="B34" s="44"/>
+      <c r="C34" s="44"/>
+      <c r="D34" s="44"/>
+      <c r="E34" s="44"/>
+      <c r="F34" s="44"/>
+      <c r="G34" s="44"/>
+      <c r="H34" s="44"/>
+      <c r="I34" s="44"/>
+      <c r="J34" s="44"/>
+      <c r="K34" s="44"/>
+      <c r="L34" s="44"/>
+      <c r="M34" s="44"/>
+      <c r="N34" s="44"/>
+      <c r="O34" s="44"/>
+      <c r="P34" s="44"/>
+      <c r="Q34" s="44"/>
+      <c r="R34" s="44"/>
+    </row>
+    <row r="35" spans="1:18" s="10" customFormat="1" ht="28" x14ac:dyDescent="0.3">
+      <c r="A35" s="44"/>
+      <c r="B35" s="44"/>
+      <c r="C35" s="44"/>
+      <c r="D35" s="44"/>
+      <c r="E35" s="44"/>
+      <c r="F35" s="44"/>
+      <c r="G35" s="44"/>
+      <c r="H35" s="44"/>
+      <c r="I35" s="44"/>
+      <c r="J35" s="44"/>
+      <c r="K35" s="44"/>
+      <c r="L35" s="44"/>
+      <c r="M35" s="44"/>
+      <c r="N35" s="44"/>
+      <c r="O35" s="44"/>
+      <c r="P35" s="44"/>
+      <c r="Q35" s="44"/>
+      <c r="R35" s="44"/>
+    </row>
+    <row r="36" spans="1:18" s="10" customFormat="1" ht="28" x14ac:dyDescent="0.3">
+      <c r="A36" s="44"/>
+      <c r="B36" s="44"/>
+      <c r="C36" s="44"/>
+      <c r="D36" s="44"/>
+      <c r="E36" s="44"/>
+      <c r="F36" s="44"/>
+      <c r="G36" s="44"/>
+      <c r="H36" s="44"/>
+      <c r="I36" s="44"/>
+      <c r="J36" s="44"/>
+      <c r="K36" s="44"/>
+      <c r="L36" s="44"/>
+      <c r="M36" s="44"/>
+      <c r="N36" s="44"/>
+      <c r="O36" s="44"/>
+      <c r="P36" s="44"/>
+      <c r="Q36" s="44"/>
+      <c r="R36" s="44"/>
+    </row>
+    <row r="37" spans="1:18" s="10" customFormat="1" ht="28" x14ac:dyDescent="0.3">
+      <c r="A37" s="44"/>
+      <c r="B37" s="44"/>
+      <c r="C37" s="44"/>
+      <c r="D37" s="44"/>
+      <c r="E37" s="44"/>
+      <c r="F37" s="44"/>
+      <c r="G37" s="44"/>
+      <c r="H37" s="44"/>
+      <c r="I37" s="44"/>
+      <c r="J37" s="44"/>
+      <c r="K37" s="44"/>
+      <c r="L37" s="44"/>
+      <c r="M37" s="44"/>
+      <c r="N37" s="44"/>
+      <c r="O37" s="44"/>
+      <c r="P37" s="44"/>
+      <c r="Q37" s="44"/>
+      <c r="R37" s="44"/>
+    </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="N2:P2"/>
     <mergeCell ref="M5:P5"/>
-    <mergeCell ref="B7:P7"/>
+    <mergeCell ref="A7:R7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/media/iviscom_download_fiz.xlsx
+++ b/media/iviscom_download_fiz.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vladislavkateryushin/Documents/crm-ktsNew-test/media/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2D86D86-8F8C-DE43-B240-6984D1BB9238}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CA0C357-84DA-244B-9361-8E7E5CEBAFCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1240" yWindow="1240" windowWidth="27840" windowHeight="16740" xr2:uid="{392D9F8D-AFB5-7E47-9560-7FC7F181A4ED}"/>
   </bookViews>
@@ -712,7 +712,7 @@
   <dimension ref="A1:R37"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="50" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:R7"/>
+      <selection activeCell="Q8" sqref="P8:Q8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="29" x14ac:dyDescent="0.35"/>
@@ -907,15 +907,11 @@
       <c r="M8" s="36"/>
       <c r="N8" s="36"/>
       <c r="O8" s="36"/>
-      <c r="P8" s="36">
-        <v>30</v>
-      </c>
-      <c r="Q8" s="5">
-        <v>31</v>
-      </c>
+      <c r="P8" s="36"/>
+      <c r="Q8" s="5"/>
       <c r="R8" s="5"/>
     </row>
-    <row r="9" spans="1:18" ht="203" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18" ht="174" x14ac:dyDescent="0.2">
       <c r="A9" s="6" t="s">
         <v>5</v>
       </c>
